--- a/BackTest/2020-01-16 BackTest DVP.xlsx
+++ b/BackTest/2020-01-16 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,22 +1375,15 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1504,26 +1408,15 @@
         <v>-6383795.555631155</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1548,26 +1441,19 @@
         <v>-6383515.066031155</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="J32" t="n">
         <v>3.93</v>
       </c>
-      <c r="K32" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,22 +1478,23 @@
         <v>-6380515.066031155</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1632,26 +1519,23 @@
         <v>-7675658.248131155</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="J34" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1676,26 +1560,23 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.898</v>
       </c>
       <c r="J35" t="n">
-        <v>3.898</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1720,26 +1601,23 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="J36" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1764,26 +1642,21 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1808,26 +1681,23 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="J38" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1852,26 +1722,23 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="J39" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1896,26 +1763,23 @@
         <v>-7520665.9631676</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="J40" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1940,26 +1804,21 @@
         <v>-7520665.9631676</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1984,26 +1843,23 @@
         <v>-7519665.9631676</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.995</v>
       </c>
       <c r="J42" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2028,26 +1884,23 @@
         <v>-7512906.8715676</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.999</v>
       </c>
       <c r="J43" t="n">
-        <v>3.999</v>
-      </c>
-      <c r="K43" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2072,26 +1925,23 @@
         <v>-7509286.8715676</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4.004</v>
       </c>
       <c r="J44" t="n">
-        <v>4.004</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2116,26 +1966,23 @@
         <v>-7509156.8715676</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.013</v>
       </c>
       <c r="J45" t="n">
-        <v>4.013</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2160,26 +2007,21 @@
         <v>-7219161.3053676</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>4.103</v>
-      </c>
-      <c r="K46" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2204,26 +2046,21 @@
         <v>-7219161.3053676</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2248,26 +2085,21 @@
         <v>-7218661.3053676</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>4.108</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2292,24 +2124,21 @@
         <v>-7394502.2025676</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2334,24 +2163,21 @@
         <v>-8171588.1119676</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2376,24 +2202,21 @@
         <v>-8159028.1119676</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2418,26 +2241,21 @@
         <v>-8158891.9695676</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>4</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2464,22 +2282,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2506,22 +2321,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2548,22 +2360,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2590,22 +2399,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2630,26 +2436,21 @@
         <v>-8239698.2378676</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2674,26 +2475,21 @@
         <v>-8180303.7839676</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2718,26 +2514,21 @@
         <v>-8172164.800916753</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2762,26 +2553,23 @@
         <v>-7668315.321941022</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="J60" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2808,22 +2596,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2848,24 +2633,23 @@
         <v>-8163630.3851907</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.086857506361323</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>1.054178379759775</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2890,26 +2674,15 @@
         <v>-8163773.4749907</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1.081075949367089</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.054178379759775</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2934,18 +2707,15 @@
         <v>-8213773.4749907</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2970,18 +2740,15 @@
         <v>-8213228.125490701</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3006,18 +2773,15 @@
         <v>-8623877.9721907</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3044,16 +2808,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3078,18 +2839,15 @@
         <v>-8691747.9721907</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3116,16 +2874,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3150,18 +2905,19 @@
         <v>-8754269.516990701</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>4.02</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.02</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3188,16 +2944,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3222,18 +2981,23 @@
         <v>-8730842.878690701</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>4.02</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3260,16 +3024,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3294,18 +3055,21 @@
         <v>-8686912.009390701</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>4.185</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3332,16 +3096,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3368,16 +3133,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3404,16 +3170,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3440,16 +3207,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3476,16 +3244,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3512,16 +3281,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3548,16 +3318,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3584,16 +3355,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3620,16 +3392,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3656,16 +3429,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3692,16 +3466,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3728,16 +3503,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3764,16 +3540,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3800,16 +3577,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3836,16 +3614,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3872,16 +3651,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3908,16 +3688,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3944,16 +3725,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3980,16 +3762,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4016,16 +3799,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4052,16 +3836,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4088,16 +3873,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4124,16 +3910,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4160,16 +3947,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4196,16 +3984,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4232,16 +4021,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4268,16 +4058,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4304,16 +4095,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4340,16 +4132,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4376,16 +4169,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4412,16 +4206,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4448,16 +4243,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4484,16 +4280,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4520,16 +4317,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4556,16 +4354,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4592,16 +4391,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4628,16 +4428,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4664,16 +4465,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4700,16 +4502,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4736,16 +4539,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4772,16 +4576,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4808,18 +4613,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest DVP.xlsx
+++ b/BackTest/2020-01-16 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3053431.706731155</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4002509.188531155</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4248638.015531154</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4268638.015531154</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4295623.443831154</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4159311.023931154</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4855799.943431154</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4895410.731931154</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4895410.731931154</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4903410.731931154</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4903410.731931154</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5156716.685131154</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5156716.685131154</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5547237.635631154</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5589987.742331155</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1441,14 +1441,10 @@
         <v>-6383515.066031155</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1478,19 +1474,15 @@
         <v>-6380515.066031155</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>3.95</v>
       </c>
       <c r="J33" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>3.95</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1519,13 +1511,13 @@
         <v>-7675658.248131155</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3.98</v>
       </c>
       <c r="J34" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1560,13 +1552,11 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1601,13 +1591,11 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1646,7 +1634,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1681,13 +1669,11 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1722,13 +1708,11 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1763,13 +1747,11 @@
         <v>-7520665.9631676</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1808,7 +1790,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1843,13 +1825,13 @@
         <v>-7519665.9631676</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>3.995</v>
       </c>
       <c r="J42" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1884,13 +1866,13 @@
         <v>-7512906.8715676</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3.999</v>
       </c>
       <c r="J43" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1925,13 +1907,11 @@
         <v>-7509286.8715676</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1966,13 +1946,13 @@
         <v>-7509156.8715676</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>4.013</v>
       </c>
       <c r="J45" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2011,7 +1991,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2050,7 +2030,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2089,7 +2069,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2124,11 +2104,11 @@
         <v>-7394502.2025676</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2163,11 +2143,11 @@
         <v>-8171588.1119676</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2202,11 +2182,11 @@
         <v>-8159028.1119676</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2241,11 +2221,13 @@
         <v>-8158891.9695676</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
       <c r="J52" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2284,7 +2266,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2319,11 +2301,13 @@
         <v>-8299696.3529676</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.007</v>
+      </c>
       <c r="J54" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2362,7 +2346,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2401,7 +2385,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2436,11 +2420,13 @@
         <v>-8239698.2378676</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.09</v>
+      </c>
       <c r="J57" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2475,11 +2461,13 @@
         <v>-8180303.7839676</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.09</v>
+      </c>
       <c r="J58" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2514,11 +2502,13 @@
         <v>-8172164.800916753</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.1</v>
+      </c>
       <c r="J59" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2553,13 +2543,13 @@
         <v>-7668315.321941022</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>4.13</v>
       </c>
       <c r="J60" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2598,7 +2588,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2633,23 +2623,21 @@
         <v>-8163630.3851907</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.086857506361323</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.054178379759775</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2674,11 +2662,17 @@
         <v>-8163773.4749907</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2707,11 +2701,17 @@
         <v>-8213773.4749907</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2740,11 +2740,17 @@
         <v>-8213228.125490701</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2773,11 +2779,17 @@
         <v>-8623877.9721907</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2809,8 +2821,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2839,11 +2857,17 @@
         <v>-8691747.9721907</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2875,8 +2899,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2905,15 +2935,19 @@
         <v>-8754269.516990701</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>4.02</v>
       </c>
       <c r="J70" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+        <v>3.95</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2942,15 +2976,17 @@
         <v>-8754269.516990701</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J71" t="n">
-        <v>4.02</v>
+        <v>3.95</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2981,17 +3017,15 @@
         <v>-8730842.878690701</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>4.02</v>
+        <v>3.95</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L72" t="n">
@@ -3022,11 +3056,19 @@
         <v>-8657752.264790701</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3055,15 +3097,17 @@
         <v>-8686912.009390701</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>4.185</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -3094,10 +3138,14 @@
         <v>-8868937.316190701</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3131,10 +3179,14 @@
         <v>-8755338.541990701</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4.012</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,10 +3220,14 @@
         <v>-8753138.541990701</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.022</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3205,10 +3261,14 @@
         <v>-8766894.7397907</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,10 +3302,14 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4.032</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,10 +3343,14 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.159</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,10 +3384,14 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4.159</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3356,7 +3428,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,10 +3464,14 @@
         <v>-8819361.6119907</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4.032</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3430,7 +3508,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3467,7 +3547,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3504,7 +3586,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3541,7 +3625,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,7 +3664,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3615,7 +3703,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,7 +3742,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,7 +3781,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3726,7 +3820,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,7 +3859,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3800,7 +3898,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,7 +3937,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3874,7 +3976,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,7 +4015,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,7 +4054,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3985,7 +4093,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4022,7 +4132,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,7 +4171,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,7 +4210,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4133,7 +4249,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4170,7 +4288,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4207,7 +4327,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,7 +4366,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4281,7 +4405,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4318,7 +4444,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,7 +4483,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4392,7 +4522,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4429,7 +4561,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4466,7 +4600,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,7 +4639,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4540,7 +4678,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4577,7 +4717,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4614,7 +4756,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>3.95</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4626,6 +4770,6 @@
       <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest DVP.xlsx
+++ b/BackTest/2020-01-16 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3053431.706731155</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4002509.188531155</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4248638.015531154</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4268638.015531154</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4295623.443831154</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4159311.023931154</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4855799.943431154</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4895410.731931154</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4895410.731931154</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4903410.731931154</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-4903410.731931154</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5156716.685131154</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5156716.685131154</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5547237.635631154</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5589987.742331155</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,11 +1012,17 @@
         <v>-5914637.710431155</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.995</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1051,17 @@
         <v>-5934637.710431155</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.956</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1090,17 @@
         <v>-5964637.710431155</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.94</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1129,17 @@
         <v>-5963637.710431155</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1168,17 @@
         <v>-5963637.710431155</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1207,17 @@
         <v>-5963387.710431155</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1246,17 @@
         <v>-6083347.209331155</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.98</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1285,17 @@
         <v>-6368108.297931155</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.914</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1324,17 @@
         <v>-6355482.035231155</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.913</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1363,17 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1402,17 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1441,17 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1480,17 @@
         <v>-6383795.555631155</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.92</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1519,17 @@
         <v>-6383515.066031155</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.93</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1479,10 +1563,12 @@
       <c r="I33" t="n">
         <v>3.95</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1516,12 +1602,10 @@
       <c r="I34" t="n">
         <v>3.98</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1555,9 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1591,12 +1673,12 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>3.95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1633,9 +1715,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1672,9 +1752,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1711,9 +1789,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1747,12 +1823,12 @@
         <v>-7520665.9631676</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>3.95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1789,9 +1865,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1825,14 +1899,10 @@
         <v>-7519665.9631676</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1866,14 +1936,10 @@
         <v>-7512906.8715676</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.999</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1910,9 +1976,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1946,14 +2010,10 @@
         <v>-7509156.8715676</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.013</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1990,9 +2050,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2029,9 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2068,9 +2124,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2107,9 +2161,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2146,9 +2198,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2185,9 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2221,14 +2269,10 @@
         <v>-8158891.9695676</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2265,9 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2301,14 +2343,10 @@
         <v>-8299696.3529676</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4.007</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2345,9 +2383,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,9 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2420,14 +2454,10 @@
         <v>-8239698.2378676</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2461,14 +2491,10 @@
         <v>-8180303.7839676</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2502,14 +2528,10 @@
         <v>-8172164.800916753</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2543,14 +2565,10 @@
         <v>-7668315.321941022</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,9 +2605,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2626,9 +2642,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2665,9 +2679,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2704,9 +2716,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2743,9 +2753,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2782,9 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2821,9 +2827,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2860,9 +2864,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2899,9 +2901,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2935,14 +2935,10 @@
         <v>-8754269.516990701</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2976,14 +2972,10 @@
         <v>-8754269.516990701</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="J71" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3020,9 +3012,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,14 +3046,10 @@
         <v>-8657752.264790701</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4.105</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3097,14 +3083,10 @@
         <v>-8686912.009390701</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4.185</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,14 +3120,10 @@
         <v>-8868937.316190701</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3179,14 +3157,10 @@
         <v>-8755338.541990701</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.012</v>
-      </c>
-      <c r="J76" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3220,14 +3194,10 @@
         <v>-8753138.541990701</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4.022</v>
-      </c>
-      <c r="J77" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3261,14 +3231,10 @@
         <v>-8766894.7397907</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="J78" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3302,14 +3268,10 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4.032</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3343,14 +3305,10 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.159</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3384,14 +3342,10 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4.159</v>
-      </c>
-      <c r="J81" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,9 +3382,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,14 +3416,10 @@
         <v>-8819361.6119907</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4.032</v>
-      </c>
-      <c r="J83" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,9 +3456,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3547,9 +3493,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3586,9 +3530,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3625,9 +3567,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3661,20 +3601,16 @@
         <v>-9138533.8188907</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.95</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3703,14 +3639,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3742,14 +3672,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3781,14 +3705,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3820,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3859,14 +3771,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3898,14 +3804,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3937,14 +3837,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3976,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4015,14 +3903,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4054,14 +3936,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4093,14 +3969,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4132,14 +4002,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4171,14 +4035,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4207,17 +4065,11 @@
         <v>-10002852.2225907</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4246,17 +4098,11 @@
         <v>-10002852.2225907</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4285,17 +4131,11 @@
         <v>-10224694.8956907</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4324,17 +4164,11 @@
         <v>-10203710.4673907</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4363,17 +4197,11 @@
         <v>-10203710.4673907</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4402,17 +4230,11 @@
         <v>-10166071.3321907</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4444,14 +4266,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4483,14 +4299,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4522,14 +4332,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4561,14 +4365,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4600,14 +4398,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4639,14 +4431,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4678,14 +4464,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4717,14 +4497,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4756,20 +4530,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest DVP.xlsx
+++ b/BackTest/2020-01-16 BackTest DVP.xlsx
@@ -451,7 +451,7 @@
         <v>-3053431.706731155</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4002509.188531155</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4248638.015531154</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4268638.015531154</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4295623.443831154</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4855799.943431154</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1012,17 +1012,11 @@
         <v>-5914637.710431155</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1051,17 +1045,11 @@
         <v>-5934637.710431155</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1090,17 +1078,11 @@
         <v>-5964637.710431155</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1129,17 +1111,11 @@
         <v>-5963637.710431155</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1168,17 +1144,11 @@
         <v>-5963637.710431155</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1207,17 +1177,11 @@
         <v>-5963387.710431155</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1246,17 +1210,11 @@
         <v>-6083347.209331155</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1285,17 +1243,11 @@
         <v>-6368108.297931155</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1324,17 +1276,11 @@
         <v>-6355482.035231155</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1363,17 +1309,11 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1402,17 +1342,11 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1441,17 +1375,11 @@
         <v>-6383937.584731155</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1480,17 +1408,11 @@
         <v>-6383795.555631155</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1524,12 +1446,10 @@
       <c r="I32" t="n">
         <v>3.93</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1563,10 +1483,12 @@
       <c r="I33" t="n">
         <v>3.95</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1602,10 +1524,12 @@
       <c r="I34" t="n">
         <v>3.98</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1636,10 +1560,12 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1673,12 +1599,12 @@
         <v>-7670592.385231155</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1715,7 +1641,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1752,7 +1680,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1789,7 +1719,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1828,7 +1760,9 @@
       <c r="I40" t="n">
         <v>3.98</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1862,10 +1796,14 @@
         <v>-7520665.9631676</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.995</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1902,7 +1840,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1939,7 +1879,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1976,7 +1918,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2013,7 +1957,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2050,7 +1996,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2087,7 +2035,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2121,17 +2071,19 @@
         <v>-7218661.3053676</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>3.93</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>1.047417302798982</v>
       </c>
       <c r="M48" t="inlineStr"/>
     </row>
@@ -2158,13 +2110,15 @@
         <v>-7394502.2025676</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.136</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2380,9 +2334,11 @@
         <v>-8239698.2378676</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.08</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2417,9 +2373,11 @@
         <v>-8239698.2378676</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>4.09</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2454,9 +2412,11 @@
         <v>-8239698.2378676</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.09</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2491,9 +2451,11 @@
         <v>-8180303.7839676</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.09</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2528,9 +2490,11 @@
         <v>-8172164.800916753</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4.1</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2565,9 +2529,11 @@
         <v>-7668315.321941022</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4.13</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2602,9 +2568,11 @@
         <v>-8138840.3301907</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.293</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2639,9 +2607,11 @@
         <v>-8163630.3851907</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4.292</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2676,9 +2646,11 @@
         <v>-8163773.4749907</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4.291</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2713,9 +2685,11 @@
         <v>-8213773.4749907</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4.29</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2750,9 +2724,11 @@
         <v>-8213228.125490701</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4.11</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2787,9 +2763,11 @@
         <v>-8623877.9721907</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.269</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2824,9 +2802,11 @@
         <v>-8623747.9721907</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.008</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2972,9 +2952,11 @@
         <v>-8754269.516990701</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3009,9 +2991,11 @@
         <v>-8730842.878690701</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3046,9 +3030,11 @@
         <v>-8657752.264790701</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.105</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3083,9 +3069,11 @@
         <v>-8686912.009390701</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4.185</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3120,9 +3108,11 @@
         <v>-8868937.316190701</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>4.18</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3157,9 +3147,11 @@
         <v>-8755338.541990701</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4.012</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3194,9 +3186,11 @@
         <v>-8753138.541990701</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4.022</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3231,9 +3225,11 @@
         <v>-8766894.7397907</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4.18</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3268,9 +3264,11 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4.032</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3305,9 +3303,11 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.159</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3342,9 +3342,11 @@
         <v>-8763294.7397907</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4.159</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3379,9 +3381,11 @@
         <v>-8819861.6119907</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4.159</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3416,9 +3420,11 @@
         <v>-8819361.6119907</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4.032</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3601,16 +3607,18 @@
         <v>-9138533.8188907</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3640,7 +3648,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3673,7 +3685,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3706,7 +3722,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3739,7 +3759,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3772,7 +3796,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3805,7 +3833,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3838,7 +3870,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3871,7 +3907,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3904,7 +3944,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3937,7 +3981,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3970,7 +4018,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4003,7 +4055,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4036,7 +4092,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4065,11 +4125,15 @@
         <v>-10002852.2225907</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4098,11 +4162,15 @@
         <v>-10002852.2225907</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4131,11 +4199,15 @@
         <v>-10224694.8956907</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4164,11 +4236,15 @@
         <v>-10203710.4673907</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4197,11 +4273,15 @@
         <v>-10203710.4673907</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4230,11 +4310,15 @@
         <v>-10166071.3321907</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4267,7 +4351,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4300,7 +4388,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4333,7 +4425,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4366,7 +4462,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4399,7 +4499,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4432,7 +4536,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4465,7 +4573,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4498,7 +4610,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4531,7 +4647,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest DVP.xlsx
+++ b/BackTest/2020-01-16 BackTest DVP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>13000</v>
       </c>
       <c r="G2" t="n">
-        <v>-3053431.706731155</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>949077.4818</v>
       </c>
       <c r="G3" t="n">
-        <v>-4002509.188531155</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>246128.827</v>
       </c>
       <c r="G4" t="n">
-        <v>-4248638.015531154</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>20000</v>
       </c>
       <c r="G5" t="n">
-        <v>-4268638.015531154</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>26985.4283</v>
       </c>
       <c r="G6" t="n">
-        <v>-4295623.443831154</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>136312.4199</v>
       </c>
       <c r="G7" t="n">
-        <v>-4159311.023931154</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>696488.9195</v>
       </c>
       <c r="G8" t="n">
-        <v>-4855799.943431154</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>39610.7885</v>
       </c>
       <c r="G9" t="n">
-        <v>-4895410.731931154</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>24456.6728</v>
       </c>
       <c r="G10" t="n">
-        <v>-4895410.731931154</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>8000</v>
       </c>
       <c r="G11" t="n">
-        <v>-4903410.731931154</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>136153.2733</v>
       </c>
       <c r="G12" t="n">
-        <v>-4903410.731931154</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>253305.9532</v>
       </c>
       <c r="G13" t="n">
-        <v>-5156716.685131154</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>35974.8368</v>
       </c>
       <c r="G14" t="n">
-        <v>-5156716.685131154</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>40907.7677</v>
       </c>
       <c r="G15" t="n">
-        <v>-5156716.685131154</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>390520.9505</v>
       </c>
       <c r="G16" t="n">
-        <v>-5547237.635631154</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>42750.1067</v>
       </c>
       <c r="G17" t="n">
-        <v>-5589987.742331155</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>25350.0319</v>
       </c>
       <c r="G18" t="n">
-        <v>-5564637.710431155</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>350000</v>
       </c>
       <c r="G19" t="n">
-        <v>-5914637.710431155</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>20000</v>
       </c>
       <c r="G20" t="n">
-        <v>-5934637.710431155</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>30000</v>
       </c>
       <c r="G21" t="n">
-        <v>-5964637.710431155</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1000</v>
       </c>
       <c r="G22" t="n">
-        <v>-5963637.710431155</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>22651.2439</v>
       </c>
       <c r="G23" t="n">
-        <v>-5963637.710431155</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>250</v>
       </c>
       <c r="G24" t="n">
-        <v>-5963387.710431155</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>119959.4989</v>
       </c>
       <c r="G25" t="n">
-        <v>-6083347.209331155</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>284761.0886</v>
       </c>
       <c r="G26" t="n">
-        <v>-6368108.297931155</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>12626.2627</v>
       </c>
       <c r="G27" t="n">
-        <v>-6355482.035231155</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>28455.5495</v>
       </c>
       <c r="G28" t="n">
-        <v>-6383937.584731155</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>11544.4505</v>
       </c>
       <c r="G29" t="n">
-        <v>-6383937.584731155</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1958.2667</v>
       </c>
       <c r="G30" t="n">
-        <v>-6383937.584731155</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>142.0291</v>
       </c>
       <c r="G31" t="n">
-        <v>-6383795.555631155</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,22 +1343,19 @@
         <v>280.4896</v>
       </c>
       <c r="G32" t="n">
-        <v>-6383515.066031155</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>3.93</v>
       </c>
       <c r="I32" t="n">
         <v>3.93</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1475,26 +1377,23 @@
         <v>3000</v>
       </c>
       <c r="G33" t="n">
-        <v>-6380515.066031155</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3.95</v>
       </c>
       <c r="I33" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J33" t="n">
         <v>3.93</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1516,26 +1415,23 @@
         <v>1295143.1821</v>
       </c>
       <c r="G34" t="n">
-        <v>-7675658.248131155</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>3.98</v>
       </c>
       <c r="I34" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="J34" t="n">
         <v>3.93</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1557,24 +1453,23 @@
         <v>5065.8629</v>
       </c>
       <c r="G35" t="n">
-        <v>-7670592.385231155</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+        <v>3.898</v>
+      </c>
+      <c r="I35" t="n">
         <v>3.93</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1596,24 +1491,23 @@
         <v>11091.0688</v>
       </c>
       <c r="G36" t="n">
-        <v>-7670592.385231155</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="I36" t="n">
         <v>3.93</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1635,24 +1529,23 @@
         <v>10000</v>
       </c>
       <c r="G37" t="n">
-        <v>-7670592.385231155</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="I37" t="n">
         <v>3.93</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1674,24 +1567,23 @@
         <v>7379.002</v>
       </c>
       <c r="G38" t="n">
-        <v>-7670592.385231155</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="I38" t="n">
         <v>3.93</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1713,24 +1605,21 @@
         <v>100000</v>
       </c>
       <c r="G39" t="n">
-        <v>-7670592.385231155</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
         <v>3.93</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1752,26 +1641,21 @@
         <v>149926.4220635544</v>
       </c>
       <c r="G40" t="n">
-        <v>-7520665.9631676</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="J40" t="n">
         <v>3.93</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1793,26 +1677,21 @@
         <v>124559.8757364456</v>
       </c>
       <c r="G41" t="n">
-        <v>-7520665.9631676</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="J41" t="n">
         <v>3.93</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1834,24 +1713,21 @@
         <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>-7519665.9631676</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
         <v>3.93</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1873,24 +1749,21 @@
         <v>6759.0916</v>
       </c>
       <c r="G43" t="n">
-        <v>-7512906.8715676</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
         <v>3.93</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1912,24 +1785,21 @@
         <v>3620</v>
       </c>
       <c r="G44" t="n">
-        <v>-7509286.8715676</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>3.93</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1951,24 +1821,21 @@
         <v>130</v>
       </c>
       <c r="G45" t="n">
-        <v>-7509156.8715676</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
         <v>3.93</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1990,24 +1857,21 @@
         <v>289995.5662</v>
       </c>
       <c r="G46" t="n">
-        <v>-7219161.3053676</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>3.93</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2029,24 +1893,21 @@
         <v>46480.4905</v>
       </c>
       <c r="G47" t="n">
-        <v>-7219161.3053676</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
         <v>3.93</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2068,24 +1929,21 @@
         <v>500</v>
       </c>
       <c r="G48" t="n">
-        <v>-7218661.3053676</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
         <v>3.93</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1.047417302798982</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,24 +1965,21 @@
         <v>175840.8972</v>
       </c>
       <c r="G49" t="n">
-        <v>-7394502.2025676</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>4.136</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2146,22 +2001,21 @@
         <v>777085.9094</v>
       </c>
       <c r="G50" t="n">
-        <v>-8171588.1119676</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2183,22 +2037,21 @@
         <v>12560</v>
       </c>
       <c r="G51" t="n">
-        <v>-8159028.1119676</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2220,22 +2073,21 @@
         <v>136.1424</v>
       </c>
       <c r="G52" t="n">
-        <v>-8158891.9695676</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2257,22 +2109,21 @@
         <v>182025.3068</v>
       </c>
       <c r="G53" t="n">
-        <v>-8340917.2763676</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2294,22 +2145,21 @@
         <v>41220.9234</v>
       </c>
       <c r="G54" t="n">
-        <v>-8299696.3529676</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2331,24 +2181,21 @@
         <v>59998.1151</v>
       </c>
       <c r="G55" t="n">
-        <v>-8239698.2378676</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2370,24 +2217,21 @@
         <v>128598.6673</v>
       </c>
       <c r="G56" t="n">
-        <v>-8239698.2378676</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2409,24 +2253,21 @@
         <v>299070.8064</v>
       </c>
       <c r="G57" t="n">
-        <v>-8239698.2378676</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2448,24 +2289,21 @@
         <v>59394.4539</v>
       </c>
       <c r="G58" t="n">
-        <v>-8180303.7839676</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2487,24 +2325,21 @@
         <v>8138.983050847458</v>
       </c>
       <c r="G59" t="n">
-        <v>-8172164.800916753</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2526,24 +2361,21 @@
         <v>503849.4789757307</v>
       </c>
       <c r="G60" t="n">
-        <v>-7668315.321941022</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2565,24 +2397,21 @@
         <v>470525.0082496788</v>
       </c>
       <c r="G61" t="n">
-        <v>-8138840.3301907</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>4.293</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2604,24 +2433,21 @@
         <v>24790.055</v>
       </c>
       <c r="G62" t="n">
-        <v>-8163630.3851907</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>4.292</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2643,24 +2469,21 @@
         <v>143.0898</v>
       </c>
       <c r="G63" t="n">
-        <v>-8163773.4749907</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>4.291</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
+        <v>3.93</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2682,24 +2505,21 @@
         <v>50000</v>
       </c>
       <c r="G64" t="n">
-        <v>-8213773.4749907</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>3.93</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1.040801526717557</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2721,24 +2541,15 @@
         <v>545.3495</v>
       </c>
       <c r="G65" t="n">
-        <v>-8213228.125490701</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,24 +2571,15 @@
         <v>410649.8467</v>
       </c>
       <c r="G66" t="n">
-        <v>-8623877.9721907</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.269</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2799,24 +2601,15 @@
         <v>130</v>
       </c>
       <c r="G67" t="n">
-        <v>-8623747.9721907</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2838,22 +2631,15 @@
         <v>68000</v>
       </c>
       <c r="G68" t="n">
-        <v>-8691747.9721907</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2875,22 +2661,15 @@
         <v>62521.5448</v>
       </c>
       <c r="G69" t="n">
-        <v>-8754269.516990701</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2912,22 +2691,15 @@
         <v>5478</v>
       </c>
       <c r="G70" t="n">
-        <v>-8754269.516990701</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2949,24 +2721,15 @@
         <v>0.4552</v>
       </c>
       <c r="G71" t="n">
-        <v>-8754269.516990701</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2988,24 +2751,15 @@
         <v>23426.6383</v>
       </c>
       <c r="G72" t="n">
-        <v>-8730842.878690701</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3027,24 +2781,15 @@
         <v>73090.6139</v>
       </c>
       <c r="G73" t="n">
-        <v>-8657752.264790701</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4.105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,24 +2811,15 @@
         <v>29159.7446</v>
       </c>
       <c r="G74" t="n">
-        <v>-8686912.009390701</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4.185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3105,24 +2841,15 @@
         <v>182025.3068</v>
       </c>
       <c r="G75" t="n">
-        <v>-8868937.316190701</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3144,24 +2871,15 @@
         <v>113598.7742</v>
       </c>
       <c r="G76" t="n">
-        <v>-8755338.541990701</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3183,24 +2901,15 @@
         <v>2200</v>
       </c>
       <c r="G77" t="n">
-        <v>-8753138.541990701</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4.022</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3222,24 +2931,15 @@
         <v>13756.1978</v>
       </c>
       <c r="G78" t="n">
-        <v>-8766894.7397907</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3261,24 +2961,15 @@
         <v>3600</v>
       </c>
       <c r="G79" t="n">
-        <v>-8763294.7397907</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3300,24 +2991,15 @@
         <v>7510</v>
       </c>
       <c r="G80" t="n">
-        <v>-8763294.7397907</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3339,24 +3021,15 @@
         <v>200</v>
       </c>
       <c r="G81" t="n">
-        <v>-8763294.7397907</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3378,24 +3051,15 @@
         <v>56566.8722</v>
       </c>
       <c r="G82" t="n">
-        <v>-8819861.6119907</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4.159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3417,24 +3081,15 @@
         <v>500</v>
       </c>
       <c r="G83" t="n">
-        <v>-8819361.6119907</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4.032</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3456,22 +3111,15 @@
         <v>18892</v>
       </c>
       <c r="G84" t="n">
-        <v>-8838253.6119907</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3493,22 +3141,15 @@
         <v>118220.1902</v>
       </c>
       <c r="G85" t="n">
-        <v>-8720033.4217907</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3530,22 +3171,15 @@
         <v>130</v>
       </c>
       <c r="G86" t="n">
-        <v>-8719903.4217907</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3567,22 +3201,15 @@
         <v>418760.3971</v>
       </c>
       <c r="G87" t="n">
-        <v>-9138663.8188907</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3604,22 +3231,15 @@
         <v>130</v>
       </c>
       <c r="G88" t="n">
-        <v>-9138533.8188907</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3641,22 +3261,15 @@
         <v>168873.4084</v>
       </c>
       <c r="G89" t="n">
-        <v>-9307407.227290699</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3678,22 +3291,15 @@
         <v>126852.9546</v>
       </c>
       <c r="G90" t="n">
-        <v>-9434260.1818907</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3715,22 +3321,15 @@
         <v>257362.9706</v>
       </c>
       <c r="G91" t="n">
-        <v>-9691623.1524907</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3752,22 +3351,15 @@
         <v>4251.136</v>
       </c>
       <c r="G92" t="n">
-        <v>-9687372.0164907</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3789,22 +3381,15 @@
         <v>221842.6731</v>
       </c>
       <c r="G93" t="n">
-        <v>-9465529.343390699</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3826,22 +3411,15 @@
         <v>4104.7189</v>
       </c>
       <c r="G94" t="n">
-        <v>-9465529.343390699</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3863,22 +3441,15 @@
         <v>561748.6356</v>
       </c>
       <c r="G95" t="n">
-        <v>-10027277.9789907</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3900,22 +3471,15 @@
         <v>6400.5536</v>
       </c>
       <c r="G96" t="n">
-        <v>-10027277.9789907</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3937,22 +3501,15 @@
         <v>850.6</v>
       </c>
       <c r="G97" t="n">
-        <v>-10026427.3789907</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3974,22 +3531,15 @@
         <v>2388.9</v>
       </c>
       <c r="G98" t="n">
-        <v>-10026427.3789907</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4011,22 +3561,15 @@
         <v>7956.9505</v>
       </c>
       <c r="G99" t="n">
-        <v>-10018470.4284907</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4048,22 +3591,15 @@
         <v>500</v>
       </c>
       <c r="G100" t="n">
-        <v>-10017970.4284907</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4085,22 +3621,15 @@
         <v>4490.1259</v>
       </c>
       <c r="G101" t="n">
-        <v>-10017970.4284907</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4122,22 +3651,15 @@
         <v>15118.2059</v>
       </c>
       <c r="G102" t="n">
-        <v>-10002852.2225907</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4159,22 +3681,15 @@
         <v>128229.3813</v>
       </c>
       <c r="G103" t="n">
-        <v>-10002852.2225907</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4196,22 +3711,15 @@
         <v>221842.6731</v>
       </c>
       <c r="G104" t="n">
-        <v>-10224694.8956907</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4233,22 +3741,15 @@
         <v>20984.4283</v>
       </c>
       <c r="G105" t="n">
-        <v>-10203710.4673907</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4270,22 +3771,15 @@
         <v>6186.7067</v>
       </c>
       <c r="G106" t="n">
-        <v>-10203710.4673907</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4307,22 +3801,15 @@
         <v>37639.1352</v>
       </c>
       <c r="G107" t="n">
-        <v>-10166071.3321907</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4344,22 +3831,15 @@
         <v>7573</v>
       </c>
       <c r="G108" t="n">
-        <v>-10173644.3321907</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4381,22 +3861,15 @@
         <v>0.0757</v>
       </c>
       <c r="G109" t="n">
-        <v>-10173644.3321907</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4418,22 +3891,15 @@
         <v>70000</v>
       </c>
       <c r="G110" t="n">
-        <v>-10243644.3321907</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4455,22 +3921,15 @@
         <v>492179.3205</v>
       </c>
       <c r="G111" t="n">
-        <v>-10735823.6526907</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4492,22 +3951,15 @@
         <v>45809.1726</v>
       </c>
       <c r="G112" t="n">
-        <v>-10735823.6526907</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4529,22 +3981,15 @@
         <v>665501.2463</v>
       </c>
       <c r="G113" t="n">
-        <v>-10070322.4063907</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4566,22 +4011,15 @@
         <v>126048.5599</v>
       </c>
       <c r="G114" t="n">
-        <v>-10070322.4063907</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4603,22 +4041,15 @@
         <v>625630.831</v>
       </c>
       <c r="G115" t="n">
-        <v>-10695953.2373907</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4640,22 +4071,15 @@
         <v>8627.1296</v>
       </c>
       <c r="G116" t="n">
-        <v>-10687326.1077907</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
